--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N2">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O2">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P2">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q2">
-        <v>14.14399834499422</v>
+        <v>15.915029980234</v>
       </c>
       <c r="R2">
-        <v>127.295985104948</v>
+        <v>143.235269822106</v>
       </c>
       <c r="S2">
-        <v>0.003661272978266955</v>
+        <v>0.004897992333194213</v>
       </c>
       <c r="T2">
-        <v>0.003999031068458072</v>
+        <v>0.005424606814095393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
         <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P3">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q3">
-        <v>12.22866411447022</v>
+        <v>17.65912868589955</v>
       </c>
       <c r="R3">
-        <v>110.057977030232</v>
+        <v>158.932158173096</v>
       </c>
       <c r="S3">
-        <v>0.00316547530553539</v>
+        <v>0.005434754255684681</v>
       </c>
       <c r="T3">
-        <v>0.003457495294236386</v>
+        <v>0.006019079443739112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N4">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O4">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P4">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q4">
-        <v>137.1079152336153</v>
+        <v>276.8951468826448</v>
       </c>
       <c r="R4">
-        <v>1233.971237102538</v>
+        <v>2492.056321943804</v>
       </c>
       <c r="S4">
-        <v>0.0354913436008011</v>
+        <v>0.08521694952596874</v>
       </c>
       <c r="T4">
-        <v>0.03876547489450145</v>
+        <v>0.0943791687753676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N5">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O5">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P5">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q5">
-        <v>13.93274428848866</v>
+        <v>9.813162713148666</v>
       </c>
       <c r="R5">
-        <v>83.59646573093198</v>
+        <v>58.878976278892</v>
       </c>
       <c r="S5">
-        <v>0.00360658838698186</v>
+        <v>0.003020088293461248</v>
       </c>
       <c r="T5">
-        <v>0.002626201159413418</v>
+        <v>0.002229864867264314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H6">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I6">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J6">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N6">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O6">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P6">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q6">
-        <v>179.8615298201406</v>
+        <v>78.3996686868951</v>
       </c>
       <c r="R6">
-        <v>1618.753768381266</v>
+        <v>705.5970181820559</v>
       </c>
       <c r="S6">
-        <v>0.04655841600782556</v>
+        <v>0.02412819684476225</v>
       </c>
       <c r="T6">
-        <v>0.0508535018335676</v>
+        <v>0.02672237359966942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N7">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O7">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P7">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q7">
-        <v>65.41364205774222</v>
+        <v>50.96984810848</v>
       </c>
       <c r="R7">
-        <v>588.72277851968</v>
+        <v>458.7286329763201</v>
       </c>
       <c r="S7">
-        <v>0.01693277913602134</v>
+        <v>0.01568642506922491</v>
       </c>
       <c r="T7">
-        <v>0.01849485417837934</v>
+        <v>0.01737297295110735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N8">
         <v>2.953636</v>
       </c>
       <c r="O8">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P8">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q8">
-        <v>56.55553950990224</v>
+        <v>56.55553950990222</v>
       </c>
       <c r="R8">
-        <v>508.9998555891201</v>
+        <v>508.99985558912</v>
       </c>
       <c r="S8">
-        <v>0.01463979728562382</v>
+        <v>0.01740547138542623</v>
       </c>
       <c r="T8">
-        <v>0.01599034120882453</v>
+        <v>0.01927684493094157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N9">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O9">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P9">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q9">
-        <v>634.1013249304534</v>
+        <v>886.7908886198755</v>
       </c>
       <c r="R9">
-        <v>5706.911924374081</v>
+        <v>7981.11799757888</v>
       </c>
       <c r="S9">
-        <v>0.1641415666082003</v>
+        <v>0.2729178002806861</v>
       </c>
       <c r="T9">
-        <v>0.1792838797838778</v>
+        <v>0.3022609384374127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J10">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N10">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O10">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P10">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q10">
-        <v>64.43662715018667</v>
+        <v>31.42786495370667</v>
       </c>
       <c r="R10">
-        <v>386.61976290112</v>
+        <v>188.56718972224</v>
       </c>
       <c r="S10">
-        <v>0.01667987198818763</v>
+        <v>0.009672205568138997</v>
       </c>
       <c r="T10">
-        <v>0.01214574397021871</v>
+        <v>0.007141417498305392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J11">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N11">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O11">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P11">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q11">
-        <v>831.8296880865068</v>
+        <v>251.0846168489244</v>
       </c>
       <c r="R11">
-        <v>7486.467192778561</v>
+        <v>2259.76155164032</v>
       </c>
       <c r="S11">
-        <v>0.2153249374911887</v>
+        <v>0.07727352884891998</v>
       </c>
       <c r="T11">
-        <v>0.2351889957270133</v>
+        <v>0.08558170013910213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N12">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O12">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P12">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q12">
-        <v>18.93261168185289</v>
+        <v>8.54145971258</v>
       </c>
       <c r="R12">
-        <v>170.393505136676</v>
+        <v>76.87313741322001</v>
       </c>
       <c r="S12">
-        <v>0.00490083906035819</v>
+        <v>0.002628710359858774</v>
       </c>
       <c r="T12">
-        <v>0.005352949037184922</v>
+        <v>0.002911339822590865</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N13">
         <v>2.953636</v>
       </c>
       <c r="O13">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P13">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q13">
-        <v>16.36881901566489</v>
+        <v>9.477502487724443</v>
       </c>
       <c r="R13">
-        <v>147.319371140984</v>
+        <v>85.29752238952</v>
       </c>
       <c r="S13">
-        <v>0.004237183382406614</v>
+        <v>0.002916785867218385</v>
       </c>
       <c r="T13">
-        <v>0.004628070097362412</v>
+        <v>0.003230388170136526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H14">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I14">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J14">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N14">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O14">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P14">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q14">
-        <v>183.5273770761673</v>
+        <v>148.6072438848311</v>
       </c>
       <c r="R14">
-        <v>1651.746393685506</v>
+        <v>1337.46519496348</v>
       </c>
       <c r="S14">
-        <v>0.04750734623063591</v>
+        <v>0.04573520389902046</v>
       </c>
       <c r="T14">
-        <v>0.05188997233586096</v>
+        <v>0.05065248817016292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H15">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I15">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J15">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N15">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O15">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P15">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q15">
-        <v>18.64983513448066</v>
+        <v>5.266640029673334</v>
       </c>
       <c r="R15">
-        <v>111.899010806884</v>
+        <v>31.59984017804</v>
       </c>
       <c r="S15">
-        <v>0.004827640371661513</v>
+        <v>0.001620855412718139</v>
       </c>
       <c r="T15">
-        <v>0.003515331770892285</v>
+        <v>0.001196749296224426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H16">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I16">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J16">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N16">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O16">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P16">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q16">
-        <v>240.7557196720047</v>
+        <v>42.07642790496888</v>
       </c>
       <c r="R16">
-        <v>2166.801477048042</v>
+        <v>378.68785114472</v>
       </c>
       <c r="S16">
-        <v>0.06232130330461269</v>
+        <v>0.012949395731123</v>
       </c>
       <c r="T16">
-        <v>0.06807053984265174</v>
+        <v>0.01434166808416731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H17">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I17">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J17">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N17">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O17">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P17">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q17">
-        <v>33.21864894794832</v>
+        <v>34.86942287270549</v>
       </c>
       <c r="R17">
-        <v>199.3118936876899</v>
+        <v>209.216537236233</v>
       </c>
       <c r="S17">
-        <v>0.008598879807611357</v>
+        <v>0.01073137569363896</v>
       </c>
       <c r="T17">
-        <v>0.006261426505424821</v>
+        <v>0.007923449684722528</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H18">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I18">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J18">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N18">
         <v>2.953636</v>
       </c>
       <c r="O18">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P18">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q18">
-        <v>28.72028760274334</v>
+        <v>38.69069844523799</v>
       </c>
       <c r="R18">
-        <v>172.32172561646</v>
+        <v>232.144190671428</v>
       </c>
       <c r="S18">
-        <v>0.007434447485296462</v>
+        <v>0.01190740731158325</v>
       </c>
       <c r="T18">
-        <v>0.005413524503089335</v>
+        <v>0.008791765883730249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H19">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I19">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J19">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N19">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O19">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P19">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q19">
-        <v>322.0121773941275</v>
+        <v>606.6701715323369</v>
       </c>
       <c r="R19">
-        <v>1932.073064364765</v>
+        <v>3640.021029194021</v>
       </c>
       <c r="S19">
-        <v>0.08335510617358646</v>
+        <v>0.1867081527734147</v>
       </c>
       <c r="T19">
-        <v>0.06069649568724194</v>
+        <v>0.1378548935813084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H20">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I20">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J20">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N20">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O20">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P20">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q20">
-        <v>32.7224968578025</v>
+        <v>21.5003880475515</v>
       </c>
       <c r="R20">
-        <v>130.88998743121</v>
+        <v>86.00155219020598</v>
       </c>
       <c r="S20">
-        <v>0.008470447366058892</v>
+        <v>0.006616936062853673</v>
       </c>
       <c r="T20">
-        <v>0.004111937433501581</v>
+        <v>0.003257051190067794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H21">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I21">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J21">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N21">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O21">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P21">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q21">
-        <v>422.4234811545175</v>
+        <v>171.7716651441179</v>
       </c>
       <c r="R21">
-        <v>2534.540886927105</v>
+        <v>1030.629990864708</v>
       </c>
       <c r="S21">
-        <v>0.109347275021696</v>
+        <v>0.05286426101495306</v>
       </c>
       <c r="T21">
-        <v>0.07962315341479533</v>
+        <v>0.03903202387372419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H22">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I22">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J22">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N22">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O22">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P22">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q22">
-        <v>21.22713716261778</v>
+        <v>19.413219194287</v>
       </c>
       <c r="R22">
-        <v>191.04423446356</v>
+        <v>174.718972748583</v>
       </c>
       <c r="S22">
-        <v>0.005494793042517888</v>
+        <v>0.005974591244523588</v>
       </c>
       <c r="T22">
-        <v>0.006001696192065279</v>
+        <v>0.006616957759781007</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H23">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I23">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J23">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N23">
         <v>2.953636</v>
       </c>
       <c r="O23">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P23">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q23">
-        <v>18.35262732233778</v>
+        <v>21.54067798711422</v>
       </c>
       <c r="R23">
-        <v>165.17364590104</v>
+        <v>193.866101884028</v>
       </c>
       <c r="S23">
-        <v>0.004750706049061447</v>
+        <v>0.006629335650873812</v>
       </c>
       <c r="T23">
-        <v>0.005188966023588096</v>
+        <v>0.007342097924682414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H24">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I24">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J24">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N24">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O24">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P24">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q24">
-        <v>205.7698574162067</v>
+        <v>337.7578419232135</v>
       </c>
       <c r="R24">
-        <v>1851.92871674586</v>
+        <v>3039.820577308921</v>
       </c>
       <c r="S24">
-        <v>0.05326496796193662</v>
+        <v>0.1039479864172897</v>
       </c>
       <c r="T24">
-        <v>0.05817874356941143</v>
+        <v>0.1151240992374103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H25">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I25">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J25">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N25">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O25">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P25">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q25">
-        <v>20.91008969667333</v>
+        <v>11.97013634131767</v>
       </c>
       <c r="R25">
-        <v>125.46053818004</v>
+        <v>71.82081804790599</v>
       </c>
       <c r="S25">
-        <v>0.005412723086655567</v>
+        <v>0.003683916153464973</v>
       </c>
       <c r="T25">
-        <v>0.003941370103965269</v>
+        <v>0.002719998359764656</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H26">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I26">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J26">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N26">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O26">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P26">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q26">
-        <v>269.9339515351134</v>
+        <v>95.63223913925641</v>
       </c>
       <c r="R26">
-        <v>2429.40556381602</v>
+        <v>860.6901522533078</v>
       </c>
       <c r="S26">
-        <v>0.06987429286727172</v>
+        <v>0.02943167400199811</v>
       </c>
       <c r="T26">
-        <v>0.07632030436447391</v>
+        <v>0.03259606150452148</v>
       </c>
     </row>
   </sheetData>
